--- a/legendre_out/DATA/p2/p2IntegrandDataPoints0.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints0.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.063509755964741e-38</v>
+        <v>9.227275288301678e-39</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.493444634060178e-38</v>
+        <v>1.29934403433877e-38</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.703571801887878e-38</v>
+        <v>1.494980932836648e-38</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>2.272656559755735e-38</v>
+        <v>1.940330572423336e-38</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>2.318563638492902e-38</v>
+        <v>1.988103124863316e-38</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>2.306962642666123e-38</v>
+        <v>1.967183677686742e-38</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>2.382421509022048e-38</v>
+        <v>2.036287172080709e-38</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>2.167347225829085e-38</v>
+        <v>1.845376122964062e-38</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.944204439749664e-38</v>
+        <v>1.658306055263049e-38</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.743720437102286e-38</v>
+        <v>1.491919122192765e-38</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>1.358135011792776e-38</v>
+        <v>1.157109411012823e-38</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>9.307081641692356e-39</v>
+        <v>7.987869202751591e-39</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.676516176489705</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>5.105654625321669e-41</v>
+        <v>4.348996193830268e-41</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.677433152354519</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>6.835196634381268e-41</v>
+        <v>5.848088212134643e-41</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.679207115008878</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>7.667751508646346e-41</v>
+        <v>6.56274832856248e-41</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.680072671666319</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>8.831689215987537e-41</v>
+        <v>7.598606103584522e-41</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.680886809116387</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>1.049109073103228e-40</v>
+        <v>8.985303509440168e-41</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.681743795905933</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>1.143531731162713e-40</v>
+        <v>9.869882863796779e-41</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.682660771770746</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.711842129542987e-40</v>
+        <v>1.464937338027047e-40</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.683397780409756</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>4.804779164392677e-40</v>
+        <v>4.120545079403056e-40</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.684263337067197</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>7.384853417605496e-40</v>
+        <v>6.383555717143012e-40</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.685943031174706</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>1.068877830573803e-39</v>
+        <v>9.193120325780023e-40</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.687699854093274</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>1.041767588990709e-39</v>
+        <v>8.950574928292367e-40</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.689525235955006</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>9.252384207313467e-40</v>
+        <v>7.984714066316545e-40</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.691256349269888</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>8.469366541266363e-40</v>
+        <v>7.296634169757523e-40</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.693013172188456</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>8.167866745768229e-40</v>
+        <v>7.035345655451364e-40</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.693578783469556</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>8.189022580691414e-40</v>
+        <v>7.049304978469674e-40</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.694615737484906</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>7.707489900774341e-40</v>
+        <v>6.639345820410841e-40</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.696278291856625</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>7.491369319306953e-40</v>
+        <v>6.457927497475724e-40</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.698009405171506</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>7.131960470113634e-40</v>
+        <v>6.181038797554341e-40</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.699783367825865</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>6.7052209970313e-40</v>
+        <v>5.759826462681578e-40</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.70147163180127</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>6.319283395756474e-40</v>
+        <v>5.404166942961527e-40</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.703177035512466</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>5.603572357429705e-40</v>
+        <v>4.840549285205683e-40</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.704736751469439</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>4.912858292584608e-40</v>
+        <v>4.250982920962901e-40</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.706647832010125</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>3.827343478646056e-40</v>
+        <v>3.30823324117366e-40</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.708276106910262</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>2.954889540540435e-40</v>
+        <v>2.542155421056439e-40</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.709964370885666</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>1.899824631982997e-40</v>
+        <v>1.643904009412809e-40</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.710855637146794</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>2.656252303666766e-40</v>
+        <v>2.280983511335145e-40</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.711772613011608</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.292048708223871e-40</v>
+        <v>1.115721654534739e-40</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.713529435930176</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>8.529866510222581e-41</v>
+        <v>7.288118182186833e-41</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.715166280698207</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>6.224112706088252e-41</v>
+        <v>5.355288915665306e-41</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719356946099085</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>3.46758942480905e-41</v>
+        <v>2.958010601846624e-41</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.723504762160485</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>2.77803780883101e-41</v>
+        <v>2.383830828097333e-41</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.727875394787168</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>2.428934851897944e-41</v>
+        <v>2.058161755334438e-41</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.745075119653346</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>1.799003895308337e-41</v>
+        <v>1.516214564288834e-41</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.762300554123211</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>1.530269680390274e-41</v>
+        <v>1.301820938647223e-41</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.779337451499375</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>1.427888704210135e-41</v>
+        <v>1.213648581251598e-41</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.788087286620635</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>1.69224910235059e-41</v>
+        <v>1.43853471734655e-41</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.796605735308717</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>1.748483203310044e-41</v>
+        <v>1.482730686321242e-41</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.805055625053636</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>2.705395753568866e-41</v>
+        <v>2.297625280906503e-41</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.813539794270136</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>3.497689046765692e-41</v>
+        <v>2.967840277408969e-41</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>7.417730387568499e-41</v>
+        <v>6.289024059197359e-41</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.82226391978771</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>1.002874955161181e-40</v>
+        <v>8.510940558081961e-41</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.830696669796837</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>8.716057586828599e-41</v>
+        <v>7.386880360763113e-41</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.837569703848993</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>5.486824333962791e-41</v>
+        <v>4.653870595118659e-41</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.844554146183789</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>2.220057825185279e-41</v>
+        <v>1.885854066517065e-41</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.846319538970252</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>1.570051620594474e-41</v>
+        <v>1.331406254633925e-41</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.847930674134597</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>2.018674745812572e-41</v>
+        <v>1.711840842264369e-41</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.84977319573212</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>7.463115258548437e-42</v>
+        <v>6.341003740027226e-42</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.852147049139162</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>4.724967028436545e-42</v>
+        <v>4.015119764674202e-42</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.856414843351097</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>2.424074492670117e-42</v>
+        <v>2.067737776987165e-42</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.865190388076044</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>1.501573374091346e-42</v>
+        <v>1.26975856910132e-42</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.866878652051449</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>3.21325293231806e-42</v>
+        <v>2.742056062621822e-42</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.869363913741131</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>8.916924051762382e-42</v>
+        <v>7.679626017846275e-42</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.873640277820963</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>1.421908661472349e-41</v>
+        <v>1.214185258611555e-41</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.878070899522913</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>2.334412301691534e-41</v>
+        <v>2.000097258188353e-41</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.881644534435317</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>2.154174870998939e-41</v>
+        <v>1.842998204694975e-41</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.88648650979625</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>3.357316724090441e-41</v>
+        <v>2.860166631695497e-41</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.890925701366096</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>3.365877949198519e-41</v>
+        <v>2.871869163314423e-41</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>3.616236102397712e-41</v>
+        <v>3.072070833962506e-41</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.908014017949633</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>4.468777724140111e-41</v>
+        <v>3.787850413219021e-41</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.916541036505611</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>3.39204146163818e-41</v>
+        <v>2.875647838922491e-41</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.925025205722112</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>1.420944794399783e-41</v>
+        <v>1.206913376843162e-41</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.933637922957044</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>6.258956422174e-42</v>
+        <v>5.297975656374306e-42</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.942370618342513</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>4.117753313652306e-42</v>
+        <v>3.506109805950248e-42</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.950700529936895</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>7.649464953403217e-42</v>
+        <v>6.541273245013101e-42</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.959476074661841</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>7.015100144729099e-42</v>
+        <v>6.020217394081026e-42</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.967797416388328</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>4.199652340329568e-42</v>
+        <v>3.616420683185603e-42</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.97227945729765</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>2.014026532613943e-42</v>
+        <v>1.727757723525925e-42</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.976384424019573</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>1.083249116415276e-42</v>
+        <v>9.279023207520576e-43</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.984954291915029</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>7.412268350808819e-43</v>
+        <v>6.296835742750091e-43</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.002231145592266</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.615489235399034e-43</v>
+        <v>2.225157876510058e-43</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.010826723091408</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>1.128932890263956e-43</v>
+        <v>9.592472332985442e-44</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.019208053893163</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>7.089245498792889e-44</v>
+        <v>6.047670272548556e-44</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.036424918495132</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>3.833086956492832e-44</v>
+        <v>3.252435854507606e-44</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.053547514550251</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>2.393831201729481e-44</v>
+        <v>2.036955633960053e-44</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.070687250341162</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>2.19123430076348e-44</v>
+        <v>1.861793310885022e-44</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.075126441911007</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>3.569779386183407e-44</v>
+        <v>3.018484578890594e-44</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.078297293032326</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>3.741800622809569e-44</v>
+        <v>3.190822511667487e-44</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.087861265603653</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>3.660759873912429e-44</v>
+        <v>3.125448320795741e-44</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.09212905981559</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>5.034979853063334e-44</v>
+        <v>4.294523455829998e-44</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.096551111649645</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>9.52884145775689e-44</v>
+        <v>8.228358531090084e-44</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.105069560337727</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>9.881862066676718e-44</v>
+        <v>8.430261090929673e-44</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.113468030875272</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>6.749517626529718e-44</v>
+        <v>5.745861993260925e-44</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.122132167317578</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>2.657861078977999e-44</v>
+        <v>2.261762243557985e-44</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.12395754917931</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21923066176708e-44</v>
+        <v>1.040103235452493e-44</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.126622778094797</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>7.11817539257168e-45</v>
+        <v>6.055444116634324e-45</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.13072774481672</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>3.5593520661787e-45</v>
+        <v>3.026860729707543e-45</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.139151924957952</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.917729096480536e-45</v>
+        <v>1.615659816779182e-45</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.156411638899399</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>8.803679526507235e-46</v>
+        <v>7.496682292887926e-46</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.170346244097408</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>6.17613336857693e-46</v>
+        <v>5.259581309413942e-46</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.190571132330683</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>4.728019137037679e-46</v>
+        <v>3.991017084038634e-46</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.199158139961929</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>7.2657351766143e-46</v>
+        <v>6.186615636329904e-46</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.207916544951084</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>8.507743735529977e-46</v>
+        <v>7.224809665483458e-46</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.216340725092316</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>8.958795439292315e-46</v>
+        <v>7.597215827259189e-46</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.221645473319603</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>8.073219116015819e-46</v>
+        <v>6.828497266456193e-46</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.225107699949367</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>7.549612665442966e-46</v>
+        <v>6.385572049815168e-46</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.230875221043007</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>6.334785029027574e-46</v>
+        <v>5.371428327740612e-46</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.23929940118424</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>5.397553520033921e-46</v>
+        <v>4.575550570888372e-46</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.24231599468344</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>5.095387486840662e-46</v>
+        <v>4.321691026876881e-46</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.24787783894759</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>4.747648597494314e-46</v>
+        <v>4.015611799365389e-46</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.252257041442167</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>4.482022385543825e-46</v>
+        <v>3.798153136278027e-46</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.25472516339606</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>4.537317858138486e-46</v>
+        <v>3.841565841219677e-46</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.25739896217944</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>4.306707615673923e-46</v>
+        <v>3.651553341846415e-46</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.259258623512755</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>4.211921803060577e-46</v>
+        <v>3.597825912082384e-46</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.2616239070519</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>3.908606472822208e-46</v>
+        <v>3.31215720272997e-46</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.263192192876769</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>3.752555366437499e-46</v>
+        <v>3.190589361567652e-46</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.271830619715387</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>2.560597554827547e-46</v>
+        <v>2.173316938920231e-46</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.27642406890735</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>2.250991885690635e-46</v>
+        <v>1.918474046560497e-46</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.28036620813926</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>1.654172836475554e-46</v>
+        <v>1.395353690893964e-46</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.28891036643103</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>1.086298730344534e-46</v>
+        <v>9.202366956277964e-47</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.293495245755098</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>1.036549166339656e-46</v>
+        <v>8.793194973640069e-47</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.297651631684394</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>1.19261496529841e-46</v>
+        <v>1.014048852866541e-46</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.300136893374075</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>1.533899661735641e-46</v>
+        <v>1.303298977161255e-46</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.300239731788821</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>1.480994677380519e-46</v>
+        <v>1.254521299566335e-46</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.30191942589633</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>2.291938651259566e-46</v>
+        <v>1.951281157461262e-46</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.306187220108267</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>3.835418127720079e-46</v>
+        <v>3.268473667646718e-46</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.308783890080591</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>3.953100550816296e-46</v>
+        <v>3.373732690122749e-46</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.310729250092858</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>3.974877175493548e-46</v>
+        <v>3.377639307013665e-46</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.31302597468884</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>4.315031766889935e-46</v>
+        <v>3.652318549504941e-46</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.315699773472222</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>4.615517313495481e-46</v>
+        <v>3.928790468036515e-46</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.318107906350845</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>4.599297557785456e-46</v>
+        <v>3.908785614123426e-46</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.320910253152659</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>4.167559070626278e-46</v>
+        <v>3.538469314083251e-46</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.323318386031281</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>3.586153312402115e-46</v>
+        <v>3.053600056300977e-46</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.327757577601127</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>2.591535541402586e-46</v>
+        <v>2.207931855198352e-46</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.331931103266214</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>1.65697117980412e-46</v>
+        <v>1.4278212116249e-46</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.340535250633251</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>9.337701742887451e-47</v>
+        <v>7.918035782080847e-47</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.344845894184665</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>6.872082317334133e-47</v>
+        <v>5.816126624776278e-47</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.348762323812888</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>5.119340321346773e-47</v>
+        <v>4.33834948730579e-47</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.357083665539375</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>3.55488823459198e-47</v>
+        <v>3.026873536461315e-47</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.362054188918739</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>3.539180438118283e-47</v>
+        <v>2.997020048962749e-47</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.365250749643743</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>1.227008822136203e-46</v>
+        <v>1.046217337835789e-46</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.367855989483961</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>2.187808590529158e-46</v>
+        <v>1.863385140838938e-46</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.369681371345694</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>2.330067543375839e-46</v>
+        <v>1.986680726198964e-46</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.370624056814194</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>2.397671885162668e-46</v>
+        <v>2.047931615126553e-46</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.371001131001594</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>2.324651381631942e-46</v>
+        <v>1.989749428350226e-46</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.371241087302666</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>2.312943683644026e-46</v>
+        <v>1.974092594416355e-46</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.37310074863598</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>2.742691116768465e-46</v>
+        <v>2.337363464117892e-46</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.37479758247928</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>2.750388539136005e-46</v>
+        <v>2.349399157797543e-46</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.376545835529954</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>2.64466562145544e-46</v>
+        <v>2.252826711361547e-46</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.378156970694299</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>2.569108968309215e-46</v>
+        <v>2.198638531032907e-46</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.379236774049127</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>2.548400899391888e-46</v>
+        <v>2.169493539053366e-46</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.379845234669704</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>2.478152131630017e-46</v>
+        <v>2.108749012460299e-46</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.382493323849399</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>2.289588835469553e-46</v>
+        <v>1.952335354670599e-46</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.386743978325545</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>1.731732465413723e-46</v>
+        <v>1.47764839490177e-46</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.391003202669586</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>1.156756398051626e-46</v>
+        <v>9.856992303832188e-47</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.395073889919927</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>7.688655030163932e-47</v>
+        <v>6.536088662475512e-47</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.396290811161082</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>7.788813581003441e-47</v>
+        <v>6.641821156641548e-47</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.399607350036622</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>5.560332957622689e-47</v>
+        <v>4.730241788112123e-47</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.403952273059619</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>5.030114551756655e-47</v>
+        <v>4.276170690254822e-47</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.406326126466659</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>4.59014132599209e-47</v>
+        <v>3.919208964060896e-47</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.408974215646356</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>3.983070123678636e-47</v>
+        <v>3.389898634974562e-47</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.411759422712378</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>3.472766993861526e-47</v>
+        <v>2.960847466350116e-47</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.41349053602726</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>3.180006129107113e-47</v>
+        <v>2.713265453236789e-47</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.414321813213119</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>2.991048616740238e-47</v>
+        <v>2.541026381773247e-47</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.419515153157765</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>2.225492363281966e-47</v>
+        <v>1.903620193315224e-47</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.421511932377406</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>1.920391627766959e-47</v>
+        <v>1.631532058983471e-47</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.430664551289752</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>9.896958364666906e-48</v>
+        <v>8.444215592394612e-48</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.447624319854858</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>4.968631418968996e-48</v>
+        <v>4.208423576504752e-48</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.464926883135782</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>3.682375110800166e-48</v>
+        <v>3.10719304890972e-48</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.482066618926692</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>3.319122465375648e-48</v>
+        <v>2.821288623006681e-48</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.490182283823687</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>3.550487491572262e-48</v>
+        <v>3.032292980060964e-48</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.493233156794469</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>3.671341082976348e-48</v>
+        <v>3.104920907087262e-48</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.499292053396556</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>4.376000118067614e-48</v>
+        <v>3.707962917671584e-48</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.507699093801998</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>5.400669372984026e-48</v>
+        <v>4.592770955708183e-48</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.512069726428679</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>5.802078842856789e-48</v>
+        <v>4.938013304899691e-48</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.516303241169035</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>6.432670753981148e-48</v>
+        <v>5.479877707186923e-48</v>
       </c>
     </row>
     <row r="179">
@@ -2330,10 +2330,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.520571035380971</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>7.793039318333039e-48</v>
+        <v>6.621407092861207e-48</v>
       </c>
     </row>
     <row r="180">
@@ -2341,10 +2341,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.520622454588343</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>7.738801224259066e-48</v>
+        <v>9.052255690391398e-48</v>
       </c>
     </row>
     <row r="181">
@@ -2352,10 +2352,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4.524727421310266</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>1.062207295172138e-47</v>
+        <v>1.049224421421358e-47</v>
       </c>
     </row>
     <row r="182">
@@ -2363,10 +2363,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.529132333408531</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>1.228536764065484e-47</v>
+        <v>1.233133180545626e-47</v>
       </c>
     </row>
     <row r="183">
@@ -2374,10 +2374,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.533597234582063</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>1.453019658230557e-47</v>
+        <v>1.374683777185689e-47</v>
       </c>
     </row>
     <row r="184">
@@ -2385,10 +2385,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.535979657856999</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>1.610858901070054e-47</v>
+        <v>1.217948624732317e-47</v>
       </c>
     </row>
     <row r="185">
@@ -2396,10 +2396,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.540033205371549</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>1.427807956366535e-47</v>
+        <v>1.15403078581436e-47</v>
       </c>
     </row>
     <row r="186">
@@ -2407,10 +2407,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.541790028290118</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>1.350229302704492e-47</v>
+        <v>1.028216073834709e-47</v>
       </c>
     </row>
     <row r="187">
@@ -2418,10 +2418,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.54406961315031</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>1.204168292311587e-47</v>
+        <v>7.95629049418791e-48</v>
       </c>
     </row>
     <row r="188">
@@ -2429,10 +2429,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.54908298586915</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>9.321786573226463e-48</v>
+        <v>6.889327681160065e-48</v>
       </c>
     </row>
     <row r="189">
@@ -2440,10 +2440,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.553067974440538</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>8.080322753380452e-48</v>
+        <v>5.402137324622273e-48</v>
       </c>
     </row>
     <row r="190">
@@ -2451,10 +2451,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.557044393144028</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>6.321845990782196e-48</v>
+        <v>3.870849776138619e-48</v>
       </c>
     </row>
     <row r="191">
@@ -2462,10 +2462,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4.561577853260723</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>4.533710595796247e-48</v>
+        <v>2.954567854582941e-48</v>
       </c>
     </row>
     <row r="192">
@@ -2473,10 +2473,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.56575137892581</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>3.475730090146682e-48</v>
+        <v>1.998055049909752e-48</v>
       </c>
     </row>
     <row r="193">
@@ -2484,10 +2484,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.570207710231447</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>2.307187604061482e-48</v>
+        <v>1.247077603963211e-48</v>
       </c>
     </row>
     <row r="194">
@@ -2495,10 +2495,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.570233419835134</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>2.379612105654118e-48</v>
+        <v>6.94234397583087e-49</v>
       </c>
     </row>
     <row r="195">
@@ -2506,10 +2506,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.574141279595461</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>1.466448840867102e-48</v>
+        <v>6.963923957196536e-49</v>
       </c>
     </row>
     <row r="196">
@@ -2517,10 +2517,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.578657599976365</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>8.149444175778744e-49</v>
+        <v>4.86014374119547e-49</v>
       </c>
     </row>
     <row r="197">
@@ -2528,10 +2528,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.578820427466379</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>8.20786184655061e-49</v>
+        <v>4.472902353797415e-49</v>
       </c>
     </row>
     <row r="198">
@@ -2539,10 +2539,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.582256944492457</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>5.720648758408992e-49</v>
+        <v>4.17775848867152e-49</v>
       </c>
     </row>
     <row r="199">
@@ -2550,10 +2550,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.583388167054657</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>5.289916622364619e-49</v>
+        <v>6.580783691726893e-49</v>
       </c>
     </row>
     <row r="200">
@@ -2561,10 +2561,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.583662402827311</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>4.927635785080864e-49</v>
+        <v>4.933700906122762e-49</v>
       </c>
     </row>
     <row r="201">
@@ -2572,10 +2572,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.586636146987034</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>7.724068798902223e-49</v>
+        <v>7.127042334023863e-49</v>
       </c>
     </row>
     <row r="202">
@@ -2583,10 +2583,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.58796447651083</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>5.801493099126892e-49</v>
+        <v>6.518443195150308e-49</v>
       </c>
     </row>
     <row r="203">
@@ -2594,10 +2594,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.591649519705875</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>8.383284952745548e-49</v>
+        <v>6.00759936226797e-49</v>
       </c>
     </row>
     <row r="204">
@@ -2605,10 +2605,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.593303504209699</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>7.667046220777285e-49</v>
+        <v>5.711663561938475e-49</v>
       </c>
     </row>
     <row r="205">
@@ -2616,10 +2616,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.595068896996162</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>7.069493137659072e-49</v>
+        <v>5.359045195402727e-49</v>
       </c>
     </row>
     <row r="206">
@@ -2627,10 +2627,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4.596757160971567</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>6.735021363279584e-49</v>
+        <v>4.888026967826096e-49</v>
       </c>
     </row>
     <row r="207">
@@ -2638,10 +2638,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.598633962040672</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>6.28247103901289e-49</v>
+        <v>4.785568100630718e-49</v>
       </c>
     </row>
     <row r="208">
@@ -2649,10 +2649,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4.600339365751868</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>5.731201819588716e-49</v>
+        <v>2.551857348290632e-49</v>
       </c>
     </row>
     <row r="209">
@@ -2660,10 +2660,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4.601719114483036</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>5.630575470541669e-49</v>
+        <v>1.008077325177358e-49</v>
       </c>
     </row>
     <row r="210">
@@ -2671,10 +2671,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4.606132596449195</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>2.997683106849234e-49</v>
+        <v>6.129074670061803e-50</v>
       </c>
     </row>
     <row r="211">
@@ -2682,10 +2682,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.610666056565891</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>1.18392300076298e-49</v>
+        <v>8.514454329443394e-50</v>
       </c>
     </row>
     <row r="212">
@@ -2693,10 +2693,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4.613091329180303</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>7.233107349853359e-50</v>
+        <v>5.292467669023074e-50</v>
       </c>
     </row>
     <row r="213">
@@ -2704,10 +2704,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.613451263631914</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>1.000848214293889e-49</v>
+        <v>3.925794143294204e-50</v>
       </c>
     </row>
     <row r="214">
@@ -2715,10 +2715,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4.613896896762476</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>6.204596393677663e-50</v>
+        <v>3.162595147853099e-50</v>
       </c>
     </row>
     <row r="215">
@@ -2726,10 +2726,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.615696569020522</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>4.643873349775068e-50</v>
+        <v>2.767901941464367e-50</v>
       </c>
     </row>
     <row r="216">
@@ -2737,10 +2737,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4.619038817499749</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>3.757739247668363e-50</v>
+        <v>2.206268257799595e-50</v>
       </c>
     </row>
     <row r="217">
@@ -2748,10 +2748,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.621798314962087</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>3.253040052476085e-50</v>
+        <v>2.172332631402649e-50</v>
       </c>
     </row>
     <row r="218">
@@ -2759,10 +2759,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.630650988498092</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>2.578337428000948e-50</v>
+        <v>1.773911599019277e-50</v>
       </c>
     </row>
     <row r="219">
@@ -2770,10 +2770,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.639795037542543</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>2.578320769802015e-50</v>
+        <v>1.594266045816581e-50</v>
       </c>
     </row>
     <row r="220">
@@ -2781,32 +2781,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4.64860486173907</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>2.09357275691973e-50</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.897658586893449e-50</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.02263603504779e-50</v>
+        <v>1.703678317881573e-50</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p2/p2IntegrandDataPoints0.500000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandDataPoints0.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>9.227275288301678e-39</v>
+        <v>9.061531106252357e-39</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.29934403433877e-38</v>
+        <v>1.300469374031268e-38</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.494980932836648e-38</v>
+        <v>1.465677116511556e-38</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.940330572423336e-38</v>
+        <v>1.918475784162437e-38</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.988103124863316e-38</v>
+        <v>2.007892651732812e-38</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.967183677686742e-38</v>
+        <v>1.994044296622949e-38</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>2.036287172080709e-38</v>
+        <v>2.020107390436932e-38</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.845376122964062e-38</v>
+        <v>1.837032428290645e-38</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>1.658306055263049e-38</v>
+        <v>1.667503707561187e-38</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.491919122192765e-38</v>
+        <v>1.5205137847297e-38</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>1.157109411012823e-38</v>
+        <v>1.162365831909751e-38</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>7.987869202751591e-39</v>
+        <v>8.255487043820952e-39</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>4.348996193830268e-41</v>
+        <v>4.375357035783705e-41</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>5.848088212134643e-41</v>
+        <v>5.866937534475954e-41</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>6.56274832856248e-41</v>
+        <v>6.69007891616633e-41</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>7.598606103584522e-41</v>
+        <v>7.494116371993239e-41</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>8.985303509440168e-41</v>
+        <v>9.043631158215558e-41</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>9.869882863796779e-41</v>
+        <v>9.840005238558771e-41</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.464937338027047e-40</v>
+        <v>1.470120774511217e-40</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>4.120545079403056e-40</v>
+        <v>4.119639472738904e-40</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>6.383555717143012e-40</v>
+        <v>6.421680286119504e-40</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>9.193120325780023e-40</v>
+        <v>9.218686576034993e-40</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>8.950574928292367e-40</v>
+        <v>8.929648084115476e-40</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>7.984714066316545e-40</v>
+        <v>7.984518593451826e-40</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>7.296634169757523e-40</v>
+        <v>7.304729445176033e-40</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>7.035345655451364e-40</v>
+        <v>7.023896002252162e-40</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>7.049304978469674e-40</v>
+        <v>7.071433367974349e-40</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>6.639345820410841e-40</v>
+        <v>6.643666662208329e-40</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>6.457927497475724e-40</v>
+        <v>6.447144962154662e-40</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>6.181038797554341e-40</v>
+        <v>6.161695462245805e-40</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>5.759826462681578e-40</v>
+        <v>5.777342378521847e-40</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>5.404166942961527e-40</v>
+        <v>5.387410947331318e-40</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>4.840549285205683e-40</v>
+        <v>4.848870789999526e-40</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>4.250982920962901e-40</v>
+        <v>4.256570974108338e-40</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>3.30823324117366e-40</v>
+        <v>3.298245904026947e-40</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>2.542155421056439e-40</v>
+        <v>2.543604271663825e-40</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>1.643904009412809e-40</v>
+        <v>1.658469838255413e-40</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>2.280983511335145e-40</v>
+        <v>2.295020832330776e-40</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.115721654534739e-40</v>
+        <v>1.125402344093797e-40</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>7.288118182186833e-41</v>
+        <v>7.268414337470821e-41</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>5.355288915665306e-41</v>
+        <v>5.338604166025143e-41</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>2.958010601846624e-41</v>
+        <v>2.936166918546887e-41</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>2.383830828097333e-41</v>
+        <v>2.373566273385565e-41</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>2.058161755334438e-41</v>
+        <v>2.010610353603101e-41</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>1.516214564288834e-41</v>
+        <v>1.473326258665947e-41</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>1.301820938647223e-41</v>
+        <v>1.307629951995288e-41</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>1.213648581251598e-41</v>
+        <v>1.192491080592763e-41</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>1.43853471734655e-41</v>
+        <v>1.441876237464862e-41</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>1.482730686321242e-41</v>
+        <v>1.475747635368758e-41</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>2.297625280906503e-41</v>
+        <v>2.314142715421916e-41</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>2.967840277408969e-41</v>
+        <v>2.971268344703586e-41</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>6.289024059197359e-41</v>
+        <v>6.302768866790183e-41</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>8.510940558081961e-41</v>
+        <v>8.512045755759769e-41</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>7.386880360763113e-41</v>
+        <v>7.397387234951746e-41</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>4.653870595118659e-41</v>
+        <v>4.658094752332546e-41</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>1.885854066517065e-41</v>
+        <v>1.888075757928971e-41</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>1.331406254633925e-41</v>
+        <v>1.343042149685814e-41</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.711840842264369e-41</v>
+        <v>1.7119227210556e-41</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>6.341003740027226e-42</v>
+        <v>6.294285730861339e-42</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>4.015119764674202e-42</v>
+        <v>3.98829844529275e-42</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>2.067737776987165e-42</v>
+        <v>2.058962884036519e-42</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>1.26975856910132e-42</v>
+        <v>1.279764844652245e-42</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>2.742056062621822e-42</v>
+        <v>2.785098109660855e-42</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>7.679626017846275e-42</v>
+        <v>7.682336711165049e-42</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>1.214185258611555e-41</v>
+        <v>1.218612913755799e-41</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>2.000097258188353e-41</v>
+        <v>1.999806830163549e-41</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>1.842998204694975e-41</v>
+        <v>1.8445633791207e-41</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>2.860166631695497e-41</v>
+        <v>2.8677190291052e-41</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>2.871869163314423e-41</v>
+        <v>2.887977670449012e-41</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>3.072070833962506e-41</v>
+        <v>3.076348871823261e-41</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>3.787850413219021e-41</v>
+        <v>3.799033306858458e-41</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>2.875647838922491e-41</v>
+        <v>2.88094288843661e-41</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>1.206913376843162e-41</v>
+        <v>1.206211272664369e-41</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>5.297975656374306e-42</v>
+        <v>5.297557085014227e-42</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>3.506109805950248e-42</v>
+        <v>3.518489756156845e-42</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>6.541273245013101e-42</v>
+        <v>6.524257148978804e-42</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>6.020217394081026e-42</v>
+        <v>6.01393006223596e-42</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>3.616420683185603e-42</v>
+        <v>3.621805111568974e-42</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>1.727757723525925e-42</v>
+        <v>1.727163409616244e-42</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>9.279023207520576e-43</v>
+        <v>9.34441982928754e-43</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>6.296835742750091e-43</v>
+        <v>6.324593671568109e-43</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>2.225157876510058e-43</v>
+        <v>2.219109175050156e-43</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>9.592472332985442e-44</v>
+        <v>9.412828191047421e-44</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>6.047670272548556e-44</v>
+        <v>5.991371790994098e-44</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>3.252435854507606e-44</v>
+        <v>3.206064063346154e-44</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>2.036955633960053e-44</v>
+        <v>2.017359537629564e-44</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>1.861793310885022e-44</v>
+        <v>1.860546131362279e-44</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>3.018484578890594e-44</v>
+        <v>3.018408115900176e-44</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>3.190822511667487e-44</v>
+        <v>3.208449928971071e-44</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>3.125448320795741e-44</v>
+        <v>3.136866385465854e-44</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>4.294523455829998e-44</v>
+        <v>4.302020920067769e-44</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>8.228358531090084e-44</v>
+        <v>8.23237157468068e-44</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>8.430261090929673e-44</v>
+        <v>8.439138265423227e-44</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>5.745861993260925e-44</v>
+        <v>5.742776318800069e-44</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>2.261762243557985e-44</v>
+        <v>2.255538144707552e-44</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>1.040103235452493e-44</v>
+        <v>1.040757024025221e-44</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>6.055444116634324e-45</v>
+        <v>6.065766152790717e-45</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>3.026860729707543e-45</v>
+        <v>3.037591958762178e-45</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.615659816779182e-45</v>
+        <v>1.591451424291843e-45</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>7.496682292887926e-46</v>
+        <v>7.363765096683812e-46</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>5.259581309413942e-46</v>
+        <v>5.387762219628255e-46</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>3.991017084038634e-46</v>
+        <v>3.929211779673013e-46</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>6.186615636329904e-46</v>
+        <v>6.265105516684945e-46</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>7.224809665483458e-46</v>
+        <v>7.268192886913899e-46</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>7.597215827259189e-46</v>
+        <v>7.703936426196829e-46</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>6.828497266456193e-46</v>
+        <v>6.887710237010079e-46</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>6.385572049815168e-46</v>
+        <v>6.397306913379995e-46</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>5.371428327740612e-46</v>
+        <v>5.400533475434857e-46</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>4.575550570888372e-46</v>
+        <v>4.585631740185167e-46</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>4.321691026876881e-46</v>
+        <v>4.274923419989379e-46</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>4.015611799365389e-46</v>
+        <v>4.146429940538435e-46</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>3.798153136278027e-46</v>
+        <v>3.936282745232109e-46</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>3.841565841219677e-46</v>
+        <v>3.973989490829895e-46</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>3.651553341846415e-46</v>
+        <v>3.733600539960678e-46</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>3.597825912082384e-46</v>
+        <v>3.626068456949828e-46</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>3.31215720272997e-46</v>
+        <v>3.40298134013018e-46</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>3.190589361567652e-46</v>
+        <v>3.290031649061098e-46</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>2.173316938920231e-46</v>
+        <v>2.272223530748345e-46</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>1.918474046560497e-46</v>
+        <v>1.92572309207103e-46</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>1.395353690893964e-46</v>
+        <v>1.430110421836464e-46</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>9.202366956277964e-47</v>
+        <v>9.466024599098886e-47</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>8.793194973640069e-47</v>
+        <v>8.776247391137362e-47</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>1.014048852866541e-46</v>
+        <v>1.04368617253805e-46</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>1.303298977161255e-46</v>
+        <v>1.342114128890192e-46</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>1.254521299566335e-46</v>
+        <v>1.291039869887076e-46</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.951281157461262e-46</v>
+        <v>2.011823099343603e-46</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>3.268473667646718e-46</v>
+        <v>3.35108557261432e-46</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>3.373732690122749e-46</v>
+        <v>3.434433422260651e-46</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>3.377639307013665e-46</v>
+        <v>3.394274627610708e-46</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>3.652318549504941e-46</v>
+        <v>3.728871170224777e-46</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>3.928790468036515e-46</v>
+        <v>4.012769317364389e-46</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>3.908785614123426e-46</v>
+        <v>3.986797615883263e-46</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>3.538469314083251e-46</v>
+        <v>3.58472973936263e-46</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>3.053600056300977e-46</v>
+        <v>3.104618329199641e-46</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>2.207931855198352e-46</v>
+        <v>2.215187214411145e-46</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>1.4278212116249e-46</v>
+        <v>1.465607481743271e-46</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>7.918035782080847e-47</v>
+        <v>8.045334205690709e-47</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>5.816126624776278e-47</v>
+        <v>5.880481662283791e-47</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>4.33834948730579e-47</v>
+        <v>4.395534577666474e-47</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>3.026873536461315e-47</v>
+        <v>3.080686227221721e-47</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>2.997020048962749e-47</v>
+        <v>3.013005615220835e-47</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>1.046217337835789e-46</v>
+        <v>1.058642710690621e-46</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>1.863385140838938e-46</v>
+        <v>1.882691862884716e-46</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>1.986680726198964e-46</v>
+        <v>1.997462322162881e-46</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>2.047931615126553e-46</v>
+        <v>2.067634419613855e-46</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>1.989749428350226e-46</v>
+        <v>2.002710019778941e-46</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>1.974092594416355e-46</v>
+        <v>1.980601042533471e-46</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>2.337363464117892e-46</v>
+        <v>2.34300276611797e-46</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>2.349399157797543e-46</v>
+        <v>2.353048773329716e-46</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>2.252826711361547e-46</v>
+        <v>2.264140714902841e-46</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>2.198638531032907e-46</v>
+        <v>2.20750978904886e-46</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>2.169493539053366e-46</v>
+        <v>2.166015084818549e-46</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>2.108749012460299e-46</v>
+        <v>2.11716640595758e-46</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>1.952335354670599e-46</v>
+        <v>1.953650728057853e-46</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>1.47764839490177e-46</v>
+        <v>1.481025587654754e-46</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>9.856992303832188e-47</v>
+        <v>9.884034128393631e-47</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>6.536088662475512e-47</v>
+        <v>6.558830165121946e-47</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>6.641821156641548e-47</v>
+        <v>6.693051168681363e-47</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>4.730241788112123e-47</v>
+        <v>4.777727801251287e-47</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>4.276170690254822e-47</v>
+        <v>4.32708365110375e-47</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>3.919208964060896e-47</v>
+        <v>3.919873745680815e-47</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>3.389898634974562e-47</v>
+        <v>3.412017135563553e-47</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>2.960847466350116e-47</v>
+        <v>2.959248392012627e-47</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>2.713265453236789e-47</v>
+        <v>2.720303378821499e-47</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>2.541026381773247e-47</v>
+        <v>2.557954012126047e-47</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.903620193315224e-47</v>
+        <v>1.9180823443625e-47</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>1.631532058983471e-47</v>
+        <v>1.637555496924516e-47</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>8.444215592394612e-48</v>
+        <v>8.431893084614678e-48</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>4.208423576504752e-48</v>
+        <v>4.223969927775227e-48</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>3.10719304890972e-48</v>
+        <v>3.107999347871627e-48</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>2.821288623006681e-48</v>
+        <v>2.829730491723533e-48</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>3.032292980060964e-48</v>
+        <v>3.044976837934352e-48</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>3.104920907087262e-48</v>
+        <v>3.101517019911333e-48</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>3.707962917671584e-48</v>
+        <v>3.714707240980254e-48</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>4.592770955708183e-48</v>
+        <v>4.592148511228288e-48</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>4.938013304899691e-48</v>
+        <v>4.923658167680887e-48</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>5.479877707186923e-48</v>
+        <v>5.471443692093991e-48</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>6.621407092861207e-48</v>
+        <v>6.606378018693259e-48</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>9.052255690391398e-48</v>
+        <v>9.065866173789932e-48</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>1.049224421421358e-47</v>
+        <v>1.044759070620612e-47</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>1.233133180545626e-47</v>
+        <v>1.232903816030391e-47</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>1.374683777185689e-47</v>
+        <v>1.375014335171365e-47</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>1.217948624732317e-47</v>
+        <v>1.220852596299754e-47</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>1.15403078581436e-47</v>
+        <v>1.154094240013814e-47</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>1.028216073834709e-47</v>
+        <v>1.027898982959668e-47</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>7.95629049418791e-48</v>
+        <v>7.969223836654307e-48</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>6.889327681160065e-48</v>
+        <v>6.895722609566058e-48</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>5.402137324622273e-48</v>
+        <v>5.399891309908407e-48</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>3.870849776138619e-48</v>
+        <v>3.872008115146335e-48</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>2.954567854582941e-48</v>
+        <v>2.961051316885536e-48</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>1.998055049909752e-48</v>
+        <v>1.999246109161529e-48</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>1.247077603963211e-48</v>
+        <v>1.247459528351641e-48</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>6.94234397583087e-49</v>
+        <v>6.969910545656485e-49</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>6.963923957196536e-49</v>
+        <v>6.955608921400519e-49</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>4.86014374119547e-49</v>
+        <v>4.858550725575163e-49</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>4.472902353797415e-49</v>
+        <v>4.454450427590766e-49</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>4.17775848867152e-49</v>
+        <v>4.178064164693844e-49</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>6.580783691726893e-49</v>
+        <v>6.585880895999322e-49</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>4.933700906122762e-49</v>
+        <v>4.931645418845092e-49</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>7.127042334023863e-49</v>
+        <v>7.132339821291948e-49</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>6.518443195150308e-49</v>
+        <v>6.514507112922982e-49</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>6.00759936226797e-49</v>
+        <v>6.02585193374602e-49</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>5.711663561938475e-49</v>
+        <v>5.713151949995912e-49</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>5.359045195402727e-49</v>
+        <v>5.337149292798515e-49</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>4.888026967826096e-49</v>
+        <v>4.888401486735425e-49</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>4.785568100630718e-49</v>
+        <v>4.776542174809117e-49</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>2.551857348290632e-49</v>
+        <v>2.563989647954019e-49</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>1.008077325177358e-49</v>
+        <v>1.013228083053949e-49</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>6.129074670061803e-50</v>
+        <v>6.141017578396493e-50</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>8.514454329443394e-50</v>
+        <v>8.546332518561109e-50</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>5.292467669023074e-50</v>
+        <v>5.251486835018345e-50</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>3.925794143294204e-50</v>
+        <v>3.911373178980731e-50</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>3.162595147853099e-50</v>
+        <v>3.149318497336111e-50</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>2.767901941464367e-50</v>
+        <v>2.764181161650014e-50</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>2.206268257799595e-50</v>
+        <v>2.250501796050164e-50</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>2.172332631402649e-50</v>
+        <v>2.146554161907173e-50</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>1.773911599019277e-50</v>
+        <v>1.78345634315673e-50</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>1.594266045816581e-50</v>
+        <v>1.593871505305343e-50</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>1.703678317881573e-50</v>
+        <v>1.710084932356017e-50</v>
       </c>
     </row>
   </sheetData>
